--- a/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T14:23:12+00:00</t>
+    <t>2025-05-05T15:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T15:47:55+00:00</t>
+    <t>2025-05-06T13:30:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:30:16+00:00</t>
+    <t>2025-05-12T16:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T16:48:36+00:00</t>
+    <t>2025-05-12T17:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T17:06:32+00:00</t>
+    <t>2025-05-12T17:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T17:31:52+00:00</t>
+    <t>2025-05-12T17:48:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T17:48:32+00:00</t>
+    <t>2025-07-08T15:57:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T15:57:28+00:00</t>
+    <t>2025-07-08T16:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T16:24:33+00:00</t>
+    <t>2025-07-09T16:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
